--- a/HexaPuzzle/Assets/Sheet/Data.xlsx
+++ b/HexaPuzzle/Assets/Sheet/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tt6tt\OneDrive\바탕 화면\안중재\HexaPuzzle\HexaPuzzle\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCF3773-56CD-4646-86FA-A9F32871B9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27490213-00E4-4672-B734-5361A854DA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,10 +638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateBlockTile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,7 +666,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101,101,101,101,3,101,0,5,4,0,3,101,3,1,4,1,1,3,4,3,5,1,0,5,101,1,101,101,101,0</t>
+    <t>1,2,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,101,101,101,4,101,1,6,5,1,4,101,4,2,5,2,2,4,5,4,6,2,1,6,101,2,101,101,101,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -1010,13 +1010,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1027,19 +1027,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2">
         <v>20</v>

--- a/HexaPuzzle/Assets/Sheet/Data.xlsx
+++ b/HexaPuzzle/Assets/Sheet/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tt6tt\OneDrive\바탕 화면\안중재\HexaPuzzle\HexaPuzzle\Assets\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bbno\HexaPuzzle\HexaPuzzle\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27490213-00E4-4672-B734-5361A854DA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA0BEF6-9420-43DF-9ACA-E1B9F2777973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,11 +666,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>101,101,101,101,4,101,1,6,5,1,4,101,4,2,5,2,2,4,5,4,6,2,1,6,101,2,101,101,101,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4,5,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,10 +1030,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>

--- a/HexaPuzzle/Assets/Sheet/Data.xlsx
+++ b/HexaPuzzle/Assets/Sheet/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bbno\HexaPuzzle\HexaPuzzle\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA0BEF6-9420-43DF-9ACA-E1B9F2777973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3082A29C-773C-4FD7-B2A0-2C3C0A164B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,10 +626,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15,19,20,23,24,25,27,28,29,30,32,33,34,36,37,38,39,41,42,43,45,46,47,48,50,51,52,55,56,60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BlockList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -658,10 +654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -671,6 +663,14 @@
   </si>
   <si>
     <t>1,2,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,28,29,32,33,34,36,37,38,39,41,42,43,45,46,47,48,50,51,52,54,55,56,57,59,60,61,64,65,69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,22 +1001,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1024,22 +1024,22 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H2" s="2">
         <v>20</v>
